--- a/outputs-r202/o__UBA1407_train.xlsx
+++ b/outputs-r202/o__UBA1407_train.xlsx
@@ -1110,7 +1110,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_3.fasta</t>
+          <t>GB_GCA_903894975.1_11.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1146,7 +1146,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_5.fasta</t>
+          <t>GB_GCA_903894975.1_12.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1182,7 +1182,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_8.fasta</t>
+          <t>GB_GCA_903894975.1_15.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1218,7 +1218,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_12.fasta</t>
+          <t>GB_GCA_903894975.1_16.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1254,32 +1254,32 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_13.fasta</t>
+          <t>GB_GCA_903894975.1_9.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9841137027675338</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01588629723235514</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9841137027675338</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1290,32 +1290,32 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_14.fasta</t>
+          <t>GB_GCA_903896595.1_16.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9841137027675338</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01588629723235514</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.219925552043649e-14</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9841137027675338</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_15.fasta</t>
+          <t>GB_GCA_903896595.1_17.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1362,7 +1362,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_3.fasta</t>
+          <t>GB_GCA_903896595.1_2.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1398,7 +1398,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_9.fasta</t>
+          <t>GB_GCA_903896595.1_4.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1434,32 +1434,32 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_10.fasta</t>
+          <t>GB_GCA_903921725.1_15.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0.229653826775492</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.1283910288707512</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0.229653826775492</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_12.fasta</t>
+          <t>GB_GCA_903921725.1_3.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1506,7 +1506,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_14.fasta</t>
+          <t>GB_GCA_903894975.1_1.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1542,7 +1542,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_2.fasta</t>
+          <t>GB_GCA_903894975.1_10.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1578,7 +1578,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_5.fasta</t>
+          <t>GB_GCA_903894975.1_13.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1614,7 +1614,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_7.fasta</t>
+          <t>GB_GCA_903894975.1_2.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1650,7 +1650,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_14.fasta</t>
+          <t>GB_GCA_903894975.1_7.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1686,7 +1686,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_17.fasta</t>
+          <t>GB_GCA_903896595.1_1.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1722,7 +1722,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_19.fasta</t>
+          <t>GB_GCA_903896595.1_8.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1758,7 +1758,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_6.fasta</t>
+          <t>GB_GCA_903921725.1_16.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1794,7 +1794,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_11.fasta</t>
+          <t>GB_GCA_903921725.1_4.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1830,7 +1830,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_18.fasta</t>
+          <t>GB_GCA_903921725.1_9.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1866,7 +1866,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_19.fasta</t>
+          <t>GB_GCA_903894975.1_0.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1902,7 +1902,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_7.fasta</t>
+          <t>GB_GCA_903894975.1_18.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1938,7 +1938,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_11.fasta</t>
+          <t>GB_GCA_903894975.1_4.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1974,7 +1974,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_13.fasta</t>
+          <t>GB_GCA_903896595.1_0.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2010,32 +2010,32 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_17.fasta</t>
+          <t>GB_GCA_903896595.1_10.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0.2332489801674907</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.1277918366387516</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.1277918366387516</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.1277918366387515</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.1277918366387516</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.1277918366387516</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.1277918366387516</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0.2332489801674907</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_18.fasta</t>
+          <t>GB_GCA_903896595.1_5.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2082,7 +2082,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_19.fasta</t>
+          <t>GB_GCA_903896595.1_6.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2118,7 +2118,7 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_6.fasta</t>
+          <t>GB_GCA_903921725.1_0.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2154,7 +2154,7 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_8.fasta</t>
+          <t>GB_GCA_903921725.1_1.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2190,7 +2190,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_0.fasta</t>
+          <t>GB_GCA_903894975.1_14.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2226,7 +2226,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_18.fasta</t>
+          <t>GB_GCA_903894975.1_17.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2262,7 +2262,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_4.fasta</t>
+          <t>GB_GCA_903894975.1_19.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2298,7 +2298,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_0.fasta</t>
+          <t>GB_GCA_903894975.1_6.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2334,32 +2334,32 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_10.fasta</t>
+          <t>GB_GCA_903896595.1_11.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2332489801674907</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1277918366387516</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1277918366387516</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1277918366387515</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1277918366387516</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1277918366387516</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1277918366387516</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2332489801674907</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_5.fasta</t>
+          <t>GB_GCA_903896595.1_18.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2406,7 +2406,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_6.fasta</t>
+          <t>GB_GCA_903896595.1_19.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2442,7 +2442,7 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_0.fasta</t>
+          <t>GB_GCA_903896595.1_7.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2478,7 +2478,7 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_1.fasta</t>
+          <t>GB_GCA_903921725.1_11.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2514,7 +2514,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_1.fasta</t>
+          <t>GB_GCA_903921725.1_13.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2550,7 +2550,7 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_10.fasta</t>
+          <t>GB_GCA_903921725.1_17.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2586,7 +2586,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_13.fasta</t>
+          <t>GB_GCA_903921725.1_18.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2622,7 +2622,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_2.fasta</t>
+          <t>GB_GCA_903921725.1_19.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2658,7 +2658,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_7.fasta</t>
+          <t>GB_GCA_903921725.1_6.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2694,7 +2694,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_1.fasta</t>
+          <t>GB_GCA_903921725.1_8.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2730,7 +2730,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_8.fasta</t>
+          <t>GB_GCA_903894975.1_3.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2766,7 +2766,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_16.fasta</t>
+          <t>GB_GCA_903894975.1_5.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2802,7 +2802,7 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_4.fasta</t>
+          <t>GB_GCA_903894975.1_8.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2838,7 +2838,7 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_9.fasta</t>
+          <t>GB_GCA_903896595.1_12.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2874,32 +2874,32 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_11.fasta</t>
+          <t>GB_GCA_903896595.1_13.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0.9841137027675338</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.01588629723235514</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0.9841137027675338</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2910,32 +2910,32 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_12.fasta</t>
+          <t>GB_GCA_903896595.1_14.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0.9841137027675338</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.01588629723235514</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2.219925552043649e-14</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0.9841137027675338</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_15.fasta</t>
+          <t>GB_GCA_903896595.1_15.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2982,7 +2982,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_16.fasta</t>
+          <t>GB_GCA_903896595.1_3.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3018,7 +3018,7 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903894975.1_9.fasta</t>
+          <t>GB_GCA_903896595.1_9.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3054,7 +3054,7 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_16.fasta</t>
+          <t>GB_GCA_903921725.1_10.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3090,7 +3090,7 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_17.fasta</t>
+          <t>GB_GCA_903921725.1_12.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3126,7 +3126,7 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_2.fasta</t>
+          <t>GB_GCA_903921725.1_14.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3162,7 +3162,7 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903896595.1_4.fasta</t>
+          <t>GB_GCA_903921725.1_2.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3198,32 +3198,32 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_15.fasta</t>
+          <t>GB_GCA_903921725.1_5.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.229653826775492</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1283910288707512</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.229653826775492</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903921725.1_3.fasta</t>
+          <t>GB_GCA_903921725.1_7.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3593,7 +3593,7 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_14.fasta</t>
+          <t>GB_GCA_013151865.1_16.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3629,7 +3629,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_18.fasta</t>
+          <t>GB_GCA_013151865.1_4.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3665,7 +3665,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_2.fasta</t>
+          <t>GB_GCA_013151865.1_7.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3701,7 +3701,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_3.fasta</t>
+          <t>GB_GCA_013151865.1_9.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3737,7 +3737,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_5.fasta</t>
+          <t>GB_GCA_013151865.1_1.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3773,7 +3773,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_6.fasta</t>
+          <t>GB_GCA_013151865.1_10.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3809,7 +3809,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_8.fasta</t>
+          <t>GB_GCA_013151865.1_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3845,7 +3845,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_0.fasta</t>
+          <t>GB_GCA_013151865.1_17.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3881,7 +3881,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_12.fasta</t>
+          <t>GB_GCA_013151865.1_0.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3917,7 +3917,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_13.fasta</t>
+          <t>GB_GCA_013151865.1_12.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3953,32 +3953,32 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_15.fasta</t>
+          <t>GB_GCA_013151865.1_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1384812314553147</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1691126112681118</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1384812314553148</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1384812314553147</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1384812314553147</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1384812314553146</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1384812314553147</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1691126112681118</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -3989,32 +3989,32 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_19.fasta</t>
+          <t>GB_GCA_013151865.1_15.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.1384812314553147</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.1691126112681118</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.1384812314553148</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1384812314553147</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.1384812314553147</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1384812314553146</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1384812314553147</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.1691126112681118</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_1.fasta</t>
+          <t>GB_GCA_013151865.1_19.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4061,7 +4061,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_10.fasta</t>
+          <t>GB_GCA_013151865.1_14.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4097,7 +4097,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_11.fasta</t>
+          <t>GB_GCA_013151865.1_18.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4133,7 +4133,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_17.fasta</t>
+          <t>GB_GCA_013151865.1_2.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4169,7 +4169,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_16.fasta</t>
+          <t>GB_GCA_013151865.1_3.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4205,7 +4205,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_4.fasta</t>
+          <t>GB_GCA_013151865.1_5.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4241,7 +4241,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_7.fasta</t>
+          <t>GB_GCA_013151865.1_6.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4277,7 +4277,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_013151865.1_9.fasta</t>
+          <t>GB_GCA_013151865.1_8.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4924,7 +4924,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_12.fasta</t>
+          <t>GB_GCA_001603055.1_1.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4960,7 +4960,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_13.fasta</t>
+          <t>GB_GCA_001603055.1_11.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4996,7 +4996,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_17.fasta</t>
+          <t>GB_GCA_001603055.1_8.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5032,7 +5032,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_18.fasta</t>
+          <t>GB_GCA_001603055.1_9.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5068,7 +5068,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_4.fasta</t>
+          <t>GB_GCA_003245525.1_10.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5104,7 +5104,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_0.fasta</t>
+          <t>GB_GCA_003245525.1_14.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5140,7 +5140,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_11.fasta</t>
+          <t>GB_GCA_003245525.1_9.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5176,7 +5176,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_17.fasta</t>
+          <t>GB_GCA_903834675.1_1.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5212,7 +5212,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_2.fasta</t>
+          <t>GB_GCA_903834675.1_10.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5248,32 +5248,32 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_4.fasta</t>
+          <t>GB_GCA_903834675.1_13.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.219932974708747e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.219932974708747e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.9783313189173517</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.219932974708747e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.219932974708747e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.219932974708747e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.02166868108253727</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0.9783313189173517</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_5.fasta</t>
+          <t>GB_GCA_903834675.1_19.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5320,7 +5320,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_16.fasta</t>
+          <t>GB_GCA_903834675.1_2.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5356,7 +5356,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_17.fasta</t>
+          <t>GB_GCA_903834675.1_8.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -5392,7 +5392,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_9.fasta</t>
+          <t>GB_GCA_903837355.1_0.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5428,7 +5428,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_2.fasta</t>
+          <t>GB_GCA_903837355.1_1.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5464,32 +5464,32 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_0.fasta</t>
+          <t>GB_GCA_903837355.1_10.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.1193393838711755</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.1193393838711755</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.2423128906230095</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.1609901900211129</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.1193393838711755</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1193393838711755</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1193393838711755</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0.2423128906230095</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_10.fasta</t>
+          <t>GB_GCA_903837355.1_15.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5536,7 +5536,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_14.fasta</t>
+          <t>GB_GCA_903837355.1_16.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5572,7 +5572,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_15.fasta</t>
+          <t>GB_GCA_903837355.1_17.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5608,7 +5608,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_19.fasta</t>
+          <t>GB_GCA_903837355.1_18.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5644,7 +5644,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_2.fasta</t>
+          <t>GB_GCA_903837355.1_8.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5680,7 +5680,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_6.fasta</t>
+          <t>GB_GCA_001603055.1_16.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5716,32 +5716,32 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_7.fasta</t>
+          <t>GB_GCA_001603055.1_5.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2.220195637271565e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2.220195637271565e-14</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.7492929559350728</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.220195637271565e-14</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.220195637271565e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.2507070440648163</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.220195637271565e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0.7492929559350728</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_15.fasta</t>
+          <t>GB_GCA_003245525.1_1.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5788,7 +5788,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_19.fasta</t>
+          <t>GB_GCA_003245525.1_12.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -5824,7 +5824,7 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_11.fasta</t>
+          <t>GB_GCA_003245525.1_18.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -5860,7 +5860,7 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_4.fasta</t>
+          <t>GB_GCA_003245525.1_8.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -5896,7 +5896,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_6.fasta</t>
+          <t>GB_GCA_903834675.1_0.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -5932,7 +5932,7 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_11.fasta</t>
+          <t>GB_GCA_903834675.1_18.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -5968,7 +5968,7 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_19.fasta</t>
+          <t>GB_GCA_903834675.1_3.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6004,7 +6004,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_3.fasta</t>
+          <t>GB_GCA_903837355.1_4.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -6040,7 +6040,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_6.fasta</t>
+          <t>GB_GCA_001603055.1_3.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -6076,7 +6076,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_7.fasta</t>
+          <t>GB_GCA_003245525.1_13.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -6112,7 +6112,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_3.fasta</t>
+          <t>GB_GCA_003245525.1_16.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -6148,7 +6148,7 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_13.fasta</t>
+          <t>GB_GCA_003245525.1_3.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -6184,7 +6184,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_16.fasta</t>
+          <t>GB_GCA_003245525.1_6.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -6220,7 +6220,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_3.fasta</t>
+          <t>GB_GCA_003245525.1_7.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -6256,7 +6256,7 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_6.fasta</t>
+          <t>GB_GCA_903834675.1_12.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -6292,7 +6292,7 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_7.fasta</t>
+          <t>GB_GCA_903834675.1_14.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -6328,7 +6328,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_12.fasta</t>
+          <t>GB_GCA_903834675.1_15.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -6364,7 +6364,7 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_14.fasta</t>
+          <t>GB_GCA_903834675.1_5.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -6400,7 +6400,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_15.fasta</t>
+          <t>GB_GCA_903834675.1_7.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -6436,7 +6436,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_5.fasta</t>
+          <t>GB_GCA_903837355.1_12.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -6472,7 +6472,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_7.fasta</t>
+          <t>GB_GCA_903837355.1_13.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -6508,7 +6508,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_12.fasta</t>
+          <t>GB_GCA_903837355.1_14.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -6544,7 +6544,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_13.fasta</t>
+          <t>GB_GCA_903837355.1_5.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -6580,7 +6580,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_14.fasta</t>
+          <t>GB_GCA_903837355.1_9.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -6616,7 +6616,7 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_5.fasta</t>
+          <t>GB_GCA_001603055.1_0.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -6652,7 +6652,7 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_9.fasta</t>
+          <t>GB_GCA_001603055.1_10.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -6688,7 +6688,7 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_16.fasta</t>
+          <t>GB_GCA_001603055.1_14.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -6724,32 +6724,32 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_5.fasta</t>
+          <t>GB_GCA_001603055.1_15.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.220195637271565e-14</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>2.220195637271565e-14</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7492929559350728</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>2.220195637271565e-14</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2.220195637271565e-14</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2507070440648163</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2.220195637271565e-14</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7492929559350728</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_1.fasta</t>
+          <t>GB_GCA_001603055.1_19.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -6796,7 +6796,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_12.fasta</t>
+          <t>GB_GCA_001603055.1_2.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -6832,7 +6832,7 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_18.fasta</t>
+          <t>GB_GCA_001603055.1_6.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -6868,7 +6868,7 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_8.fasta</t>
+          <t>GB_GCA_001603055.1_7.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -6904,7 +6904,7 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_0.fasta</t>
+          <t>GB_GCA_003245525.1_15.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -6940,7 +6940,7 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_18.fasta</t>
+          <t>GB_GCA_003245525.1_19.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -6976,7 +6976,7 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_3.fasta</t>
+          <t>GB_GCA_903834675.1_11.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -7012,7 +7012,7 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_4.fasta</t>
+          <t>GB_GCA_903834675.1_4.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -7048,7 +7048,7 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_1.fasta</t>
+          <t>GB_GCA_903834675.1_6.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -7084,7 +7084,7 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_11.fasta</t>
+          <t>GB_GCA_903837355.1_11.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -7120,7 +7120,7 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_8.fasta</t>
+          <t>GB_GCA_903837355.1_19.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -7156,7 +7156,7 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001603055.1_9.fasta</t>
+          <t>GB_GCA_903837355.1_3.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -7192,7 +7192,7 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_10.fasta</t>
+          <t>GB_GCA_903837355.1_6.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -7228,7 +7228,7 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_14.fasta</t>
+          <t>GB_GCA_903837355.1_7.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -7264,7 +7264,7 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003245525.1_9.fasta</t>
+          <t>GB_GCA_001603055.1_12.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -7300,7 +7300,7 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_1.fasta</t>
+          <t>GB_GCA_001603055.1_13.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -7336,7 +7336,7 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_10.fasta</t>
+          <t>GB_GCA_001603055.1_17.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -7372,32 +7372,32 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_13.fasta</t>
+          <t>GB_GCA_001603055.1_18.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.219932974708747e-14</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>2.219932974708747e-14</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9783313189173517</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2.219932974708747e-14</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>2.219932974708747e-14</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>2.219932974708747e-14</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.02166868108253727</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9783313189173517</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_19.fasta</t>
+          <t>GB_GCA_001603055.1_4.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -7444,32 +7444,32 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_2.fasta</t>
+          <t>GB_GCA_003245525.1_0.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.05754109706694627</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>2.219966390594793e-14</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9424589029329428</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>2.219966390594793e-14</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>2.219966390594793e-14</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2.219966390594793e-14</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.219966390594793e-14</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9424589029329428</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903834675.1_8.fasta</t>
+          <t>GB_GCA_003245525.1_11.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -7516,7 +7516,7 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_0.fasta</t>
+          <t>GB_GCA_003245525.1_17.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -7552,7 +7552,7 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_1.fasta</t>
+          <t>GB_GCA_003245525.1_2.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -7588,32 +7588,32 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_10.fasta</t>
+          <t>GB_GCA_003245525.1_4.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1193393838711755</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1193393838711755</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2423128906230095</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1609901900211129</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1193393838711755</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1193393838711755</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1193393838711755</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2423128906230095</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_15.fasta</t>
+          <t>GB_GCA_003245525.1_5.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -7660,7 +7660,7 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_16.fasta</t>
+          <t>GB_GCA_903834675.1_16.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -7696,7 +7696,7 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_17.fasta</t>
+          <t>GB_GCA_903834675.1_17.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7732,7 +7732,7 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_18.fasta</t>
+          <t>GB_GCA_903834675.1_9.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7768,7 +7768,7 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_903837355.1_8.fasta</t>
+          <t>GB_GCA_903837355.1_2.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7983,7 +7983,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_19.fasta</t>
+          <t>GB_GCA_002068325.1_16.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -8019,32 +8019,32 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_3.fasta</t>
+          <t>GB_GCA_002068325.1_17.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.1387761202321788</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.1387761202321788</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1387761202321788</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.167343278606927</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.1387761202321788</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1387761202321789</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.1387761202321789</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.167343278606927</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -8055,7 +8055,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_8.fasta</t>
+          <t>GB_GCA_002068325.1_18.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -8091,7 +8091,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_1.fasta</t>
+          <t>GB_GCA_002068325.1_2.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8127,32 +8127,32 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_13.fasta</t>
+          <t>GB_GCA_002068325.1_5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.219981920321575e-14</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.219981920321575e-14</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.072582393645111</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9274176063547779</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>2.219981920321575e-14</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.219981920321575e-14</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.219981920321575e-14</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9274176063547779</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_14.fasta</t>
+          <t>GB_GCA_002068325.1_6.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -8199,7 +8199,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_15.fasta</t>
+          <t>GB_GCA_002068325.1_0.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -8235,7 +8235,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_0.fasta</t>
+          <t>GB_GCA_002068325.1_10.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -8271,7 +8271,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_10.fasta</t>
+          <t>GB_GCA_002068325.1_11.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -8307,7 +8307,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_11.fasta</t>
+          <t>GB_GCA_002068325.1_12.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -8343,7 +8343,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_12.fasta</t>
+          <t>GB_GCA_002068325.1_4.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -8379,7 +8379,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_4.fasta</t>
+          <t>GB_GCA_002068325.1_7.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -8415,7 +8415,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_7.fasta</t>
+          <t>GB_GCA_002068325.1_9.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -8451,7 +8451,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_9.fasta</t>
+          <t>GB_GCA_002068325.1_1.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -8487,32 +8487,32 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_16.fasta</t>
+          <t>GB_GCA_002068325.1_13.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.219981920321575e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.219981920321575e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.072582393645111</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.9274176063547779</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.219981920321575e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.219981920321575e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.219981920321575e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0.9274176063547779</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -8523,32 +8523,32 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_17.fasta</t>
+          <t>GB_GCA_002068325.1_14.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1387761202321788</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1387761202321788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1387761202321788</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.167343278606927</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1387761202321788</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1387761202321789</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1387761202321789</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.167343278606927</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_18.fasta</t>
+          <t>GB_GCA_002068325.1_15.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8595,7 +8595,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_2.fasta</t>
+          <t>GB_GCA_002068325.1_19.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8631,7 +8631,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_5.fasta</t>
+          <t>GB_GCA_002068325.1_3.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -8667,7 +8667,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002068325.1_6.fasta</t>
+          <t>GB_GCA_002068325.1_8.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -9134,7 +9134,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_0.fasta</t>
+          <t>GB_GCA_003552565.1_14.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -9170,7 +9170,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_10.fasta</t>
+          <t>GB_GCA_003552565.1_2.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -9206,7 +9206,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_12.fasta</t>
+          <t>GB_GCA_003552565.1_5.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -9242,7 +9242,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_15.fasta</t>
+          <t>GB_GCA_003552565.1_9.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -9278,7 +9278,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_10.fasta</t>
+          <t>GB_GCA_007130365.1_1.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -9314,7 +9314,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_18.fasta</t>
+          <t>GB_GCA_007130365.1_19.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -9350,7 +9350,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_4.fasta</t>
+          <t>GB_GCA_007130365.1_8.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -9386,7 +9386,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_2.fasta</t>
+          <t>GB_GCA_007133055.1_11.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -9422,7 +9422,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_7.fasta</t>
+          <t>GB_GCA_007133055.1_12.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -9458,7 +9458,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_9.fasta</t>
+          <t>GB_GCA_007133055.1_14.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -9494,7 +9494,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_13.fasta</t>
+          <t>GB_GCA_007133055.1_15.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -9530,7 +9530,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_17.fasta</t>
+          <t>GB_GCA_007133055.1_3.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -9566,7 +9566,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_4.fasta</t>
+          <t>GB_GCA_003552565.1_1.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -9602,7 +9602,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_16.fasta</t>
+          <t>GB_GCA_003552565.1_11.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -9638,32 +9638,32 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_2.fasta</t>
+          <t>GB_GCA_003552565.1_16.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1283910288707514</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2296538267754918</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1283910288707513</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1283910288707513</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2296538267754918</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_5.fasta</t>
+          <t>GB_GCA_003552565.1_19.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -9710,7 +9710,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_7.fasta</t>
+          <t>GB_GCA_007130365.1_13.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -9746,7 +9746,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_0.fasta</t>
+          <t>GB_GCA_007130365.1_15.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -9782,7 +9782,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_1.fasta</t>
+          <t>GB_GCA_007130365.1_17.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -9818,7 +9818,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_17.fasta</t>
+          <t>GB_GCA_007130365.1_3.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -9854,7 +9854,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_4.fasta</t>
+          <t>GB_GCA_007130365.1_6.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -9890,7 +9890,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_18.fasta</t>
+          <t>GB_GCA_007133055.1_16.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -9926,7 +9926,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_3.fasta</t>
+          <t>GB_GCA_003552565.1_18.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -9962,7 +9962,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_6.fasta</t>
+          <t>GB_GCA_003552565.1_3.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -9998,7 +9998,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_7.fasta</t>
+          <t>GB_GCA_003552565.1_6.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -10034,7 +10034,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_8.fasta</t>
+          <t>GB_GCA_003552565.1_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -10070,7 +10070,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_0.fasta</t>
+          <t>GB_GCA_003552565.1_8.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -10106,7 +10106,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_11.fasta</t>
+          <t>GB_GCA_007130365.1_0.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -10142,7 +10142,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_12.fasta</t>
+          <t>GB_GCA_007130365.1_11.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -10178,7 +10178,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_14.fasta</t>
+          <t>GB_GCA_007130365.1_12.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -10214,7 +10214,7 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_9.fasta</t>
+          <t>GB_GCA_007130365.1_14.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -10250,7 +10250,7 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_10.fasta</t>
+          <t>GB_GCA_007130365.1_9.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -10286,7 +10286,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_13.fasta</t>
+          <t>GB_GCA_007133055.1_10.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -10322,7 +10322,7 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_18.fasta</t>
+          <t>GB_GCA_007133055.1_13.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -10358,7 +10358,7 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_19.fasta</t>
+          <t>GB_GCA_007133055.1_18.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -10394,7 +10394,7 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_5.fasta</t>
+          <t>GB_GCA_007133055.1_19.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -10430,7 +10430,7 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_6.fasta</t>
+          <t>GB_GCA_007133055.1_5.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -10466,7 +10466,7 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_8.fasta</t>
+          <t>GB_GCA_007133055.1_6.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -10502,7 +10502,7 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_1.fasta</t>
+          <t>GB_GCA_007133055.1_8.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -10538,7 +10538,7 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_11.fasta</t>
+          <t>GB_GCA_003552565.1_13.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -10574,7 +10574,7 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_16.fasta</t>
+          <t>GB_GCA_003552565.1_17.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -10610,7 +10610,7 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_19.fasta</t>
+          <t>GB_GCA_003552565.1_4.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -10646,7 +10646,7 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_13.fasta</t>
+          <t>GB_GCA_007130365.1_16.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -10682,32 +10682,32 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_15.fasta</t>
+          <t>GB_GCA_007130365.1_2.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.1283910288707514</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0.2296538267754918</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.1283910288707513</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.1283910288707513</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0.2296538267754918</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_17.fasta</t>
+          <t>GB_GCA_007130365.1_5.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -10754,7 +10754,7 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_3.fasta</t>
+          <t>GB_GCA_007130365.1_7.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -10790,7 +10790,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_6.fasta</t>
+          <t>GB_GCA_007133055.1_0.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -10826,7 +10826,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_16.fasta</t>
+          <t>GB_GCA_007133055.1_1.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -10862,7 +10862,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_14.fasta</t>
+          <t>GB_GCA_007133055.1_17.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -10898,7 +10898,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_2.fasta</t>
+          <t>GB_GCA_007133055.1_4.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -10934,7 +10934,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_5.fasta</t>
+          <t>GB_GCA_003552565.1_0.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -10970,7 +10970,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_003552565.1_9.fasta</t>
+          <t>GB_GCA_003552565.1_10.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -11006,7 +11006,7 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_1.fasta</t>
+          <t>GB_GCA_003552565.1_12.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -11042,7 +11042,7 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_19.fasta</t>
+          <t>GB_GCA_003552565.1_15.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -11078,7 +11078,7 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007130365.1_8.fasta</t>
+          <t>GB_GCA_007130365.1_10.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -11114,7 +11114,7 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_11.fasta</t>
+          <t>GB_GCA_007130365.1_18.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -11150,7 +11150,7 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_12.fasta</t>
+          <t>GB_GCA_007130365.1_4.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -11186,7 +11186,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_14.fasta</t>
+          <t>GB_GCA_007133055.1_2.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -11222,7 +11222,7 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_15.fasta</t>
+          <t>GB_GCA_007133055.1_7.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -11258,7 +11258,7 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_007133055.1_3.fasta</t>
+          <t>GB_GCA_007133055.1_9.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -12881,28 +12881,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.05290180081471003</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.9470981991851789</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0.9470981991851789</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_1.fasta</t>
+          <t>GB_GCA_002070945.1_13.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -13345,32 +13345,32 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_11.fasta</t>
+          <t>GB_GCA_002070945.1_3.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.942593987779423e-13</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>4.942593987779423e-13</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>4.942593987779423e-13</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>4.942593987779421e-13</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2955905189305011</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7044094810670277</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>4.942593987779424e-13</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7044094810670277</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_15.fasta</t>
+          <t>GB_GCA_002070945.1_5.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -13417,7 +13417,7 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_17.fasta</t>
+          <t>GB_GCA_002070945.1_8.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -13453,7 +13453,7 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_4.fasta</t>
+          <t>GB_GCA_002070945.1_9.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -13489,7 +13489,7 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_6.fasta</t>
+          <t>GB_GCA_002305655.1_10.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -13525,7 +13525,7 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_0.fasta</t>
+          <t>GB_GCA_002305655.1_15.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -13561,7 +13561,7 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_13.fasta</t>
+          <t>GB_GCA_002305655.1_4.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -13597,7 +13597,7 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_17.fasta</t>
+          <t>GB_GCA_002305655.1_9.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -13633,7 +13633,7 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_18.fasta</t>
+          <t>GB_GCA_002315885.1_17.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -13669,7 +13669,7 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_6.fasta</t>
+          <t>GB_GCA_002315885.1_18.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -13705,7 +13705,7 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_10.fasta</t>
+          <t>GB_GCA_002315885.1_4.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -13741,7 +13741,7 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_12.fasta</t>
+          <t>GB_GCA_002315885.1_6.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -13777,7 +13777,7 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_13.fasta</t>
+          <t>GB_GCA_012515455.1_14.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -13813,7 +13813,7 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_18.fasta</t>
+          <t>GB_GCA_012515455.1_15.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -13849,7 +13849,7 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_4.fasta</t>
+          <t>GB_GCA_012515455.1_2.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -13885,7 +13885,7 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_8.fasta</t>
+          <t>GB_GCA_012515455.1_9.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -13921,7 +13921,7 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_10.fasta</t>
+          <t>GB_GCA_012799725.1_1.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -13957,32 +13957,32 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_12.fasta</t>
+          <t>GB_GCA_012799725.1_16.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.07264770189875681</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07264770189875681</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0726477018987568</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07264770189875681</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.07264770189875684</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5641137886074592</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0726477018987568</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5641137886074592</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_3.fasta</t>
+          <t>GB_GCA_012799725.1_18.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -14029,7 +14029,7 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_4.fasta</t>
+          <t>GB_GCA_012799725.1_5.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -14065,7 +14065,7 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_10.fasta</t>
+          <t>GB_GCA_012799725.1_9.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -14101,7 +14101,7 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_11.fasta</t>
+          <t>GB_GCA_012799755.1_6.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -14137,7 +14137,7 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_12.fasta</t>
+          <t>GB_GCA_012799755.1_7.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -14173,7 +14173,7 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_16.fasta</t>
+          <t>GB_GCA_012799905.1_11.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -14209,7 +14209,7 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_18.fasta</t>
+          <t>GB_GCA_012799905.1_13.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -14245,7 +14245,7 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_16.fasta</t>
+          <t>GB_GCA_012799905.1_2.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -14281,7 +14281,7 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_7.fasta</t>
+          <t>GB_GCA_012800565.1_13.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -14317,7 +14317,7 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_12.fasta</t>
+          <t>GB_GCA_012800565.1_15.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -14353,7 +14353,7 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_16.fasta</t>
+          <t>GB_GCA_012800565.1_19.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -14389,7 +14389,7 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_18.fasta</t>
+          <t>GB_GCA_012800565.1_2.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -14425,7 +14425,7 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_0.fasta</t>
+          <t>GB_GCA_012800565.1_7.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -14461,7 +14461,7 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_1.fasta</t>
+          <t>GB_GCA_012800565.1_8.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -14497,7 +14497,7 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_11.fasta</t>
+          <t>GB_GCA_012800625.1_10.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -14533,7 +14533,7 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_5.fasta</t>
+          <t>GB_GCA_012800625.1_13.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -14569,7 +14569,7 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_8.fasta</t>
+          <t>GB_GCA_012800625.1_17.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -14605,7 +14605,7 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_8.fasta</t>
+          <t>GB_GCA_012800625.1_19.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -14641,7 +14641,7 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_1.fasta</t>
+          <t>GB_GCA_900548225.1_1.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -14677,7 +14677,7 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_10.fasta</t>
+          <t>GB_GCA_900548225.1_15.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -14713,7 +14713,7 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_11.fasta</t>
+          <t>GB_GCA_900548225.1_18.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -14749,7 +14749,7 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_18.fasta</t>
+          <t>GB_GCA_900548225.1_19.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -14785,7 +14785,7 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_8.fasta</t>
+          <t>GB_GCA_900548225.1_2.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -14821,7 +14821,7 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_14.fasta</t>
+          <t>GB_GCA_900548225.1_6.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -14857,7 +14857,7 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_18.fasta</t>
+          <t>GB_GCA_900548225.1_9.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -14893,7 +14893,7 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_2.fasta</t>
+          <t>GB_GCA_902776645.1_0.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -14929,7 +14929,7 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_6.fasta</t>
+          <t>GB_GCA_902776645.1_13.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -14965,7 +14965,7 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_10.fasta</t>
+          <t>GB_GCA_902776645.1_14.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -15001,7 +15001,7 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_15.fasta</t>
+          <t>GB_GCA_902776645.1_2.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -15037,7 +15037,7 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_16.fasta</t>
+          <t>GB_GCA_902776645.1_5.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -15073,7 +15073,7 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_7.fasta</t>
+          <t>GB_GCA_902783355.1_15.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -15109,7 +15109,7 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_8.fasta</t>
+          <t>RS_GCF_900769285.1_3.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -15145,7 +15145,7 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_1.fasta</t>
+          <t>RS_GCF_900769285.1_4.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -15181,7 +15181,7 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_10.fasta</t>
+          <t>RS_GCF_900771165.1_13.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -15217,7 +15217,7 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_14.fasta</t>
+          <t>RS_GCF_900771165.1_2.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -15253,7 +15253,7 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_10.fasta</t>
+          <t>RS_GCF_900771165.1_3.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -15289,7 +15289,7 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_12.fasta</t>
+          <t>RS_GCF_900771165.1_4.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -15325,7 +15325,7 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_14.fasta</t>
+          <t>RS_GCF_900771165.1_8.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -15361,7 +15361,7 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_1.fasta</t>
+          <t>RS_GCF_900771165.1_9.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -15397,7 +15397,7 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_14.fasta</t>
+          <t>GB_GCA_002070945.1_18.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -15433,7 +15433,7 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_16.fasta</t>
+          <t>GB_GCA_002070945.1_19.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -15469,7 +15469,7 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_2.fasta</t>
+          <t>GB_GCA_002070945.1_2.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -15505,7 +15505,7 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_0.fasta</t>
+          <t>GB_GCA_002070945.1_7.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -15541,7 +15541,7 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_2.fasta</t>
+          <t>GB_GCA_002305655.1_11.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -15577,7 +15577,7 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_9.fasta</t>
+          <t>GB_GCA_002305655.1_19.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -15613,7 +15613,7 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_11.fasta</t>
+          <t>GB_GCA_002305655.1_3.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -15649,7 +15649,7 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_3.fasta</t>
+          <t>GB_GCA_002305655.1_5.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -15685,7 +15685,7 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_7.fasta</t>
+          <t>GB_GCA_002305655.1_8.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -15721,7 +15721,7 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_13.fasta</t>
+          <t>GB_GCA_002315885.1_11.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -15757,7 +15757,7 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_15.fasta</t>
+          <t>GB_GCA_002315885.1_14.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -15793,7 +15793,7 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_19.fasta</t>
+          <t>GB_GCA_002315885.1_16.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -15829,7 +15829,7 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_2.fasta</t>
+          <t>GB_GCA_002315885.1_19.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -15865,7 +15865,7 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_0.fasta</t>
+          <t>GB_GCA_002315885.1_8.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -15901,7 +15901,7 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_17.fasta</t>
+          <t>GB_GCA_012515455.1_0.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -15937,7 +15937,7 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_19.fasta</t>
+          <t>GB_GCA_012515455.1_10.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -15973,7 +15973,7 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_5.fasta</t>
+          <t>GB_GCA_012515455.1_16.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -16009,7 +16009,7 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_12.fasta</t>
+          <t>GB_GCA_012515455.1_5.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -16045,7 +16045,7 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_14.fasta</t>
+          <t>GB_GCA_012515455.1_6.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -16081,7 +16081,7 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_18.fasta</t>
+          <t>GB_GCA_012799725.1_0.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -16117,7 +16117,7 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_6.fasta</t>
+          <t>GB_GCA_012799725.1_14.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -16153,7 +16153,7 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_17.fasta</t>
+          <t>GB_GCA_012799725.1_17.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -16189,7 +16189,7 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_3.fasta</t>
+          <t>GB_GCA_012799725.1_6.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -16225,7 +16225,7 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_5.fasta</t>
+          <t>GB_GCA_012799755.1_1.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -16261,7 +16261,7 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_6.fasta</t>
+          <t>GB_GCA_012799755.1_13.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -16297,7 +16297,7 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_15.fasta</t>
+          <t>GB_GCA_012799755.1_14.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -16333,7 +16333,7 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_6.fasta</t>
+          <t>GB_GCA_012799755.1_2.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -16369,7 +16369,7 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_0.fasta</t>
+          <t>GB_GCA_012799755.1_3.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -16405,7 +16405,7 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_12.fasta</t>
+          <t>GB_GCA_012799905.1_0.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -16441,7 +16441,7 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_14.fasta</t>
+          <t>GB_GCA_012799905.1_10.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -16477,7 +16477,7 @@
     <row r="144">
       <c r="A144" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_17.fasta</t>
+          <t>GB_GCA_012799905.1_17.fasta</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -16513,7 +16513,7 @@
     <row r="145">
       <c r="A145" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_3.fasta</t>
+          <t>GB_GCA_012799905.1_19.fasta</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -16549,7 +16549,7 @@
     <row r="146">
       <c r="A146" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_4.fasta</t>
+          <t>GB_GCA_012799905.1_3.fasta</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -16585,7 +16585,7 @@
     <row r="147">
       <c r="A147" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_17.fasta</t>
+          <t>GB_GCA_012799905.1_4.fasta</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -16621,7 +16621,7 @@
     <row r="148">
       <c r="A148" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_7.fasta</t>
+          <t>GB_GCA_012800565.1_1.fasta</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -16657,7 +16657,7 @@
     <row r="149">
       <c r="A149" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_0.fasta</t>
+          <t>GB_GCA_012800565.1_9.fasta</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -16693,7 +16693,7 @@
     <row r="150">
       <c r="A150" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_12.fasta</t>
+          <t>GB_GCA_012800625.1_16.fasta</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -16729,7 +16729,7 @@
     <row r="151">
       <c r="A151" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_17.fasta</t>
+          <t>GB_GCA_012800625.1_18.fasta</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -16765,7 +16765,7 @@
     <row r="152">
       <c r="A152" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_3.fasta</t>
+          <t>GB_GCA_012800625.1_4.fasta</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -16801,7 +16801,7 @@
     <row r="153">
       <c r="A153" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_14.fasta</t>
+          <t>GB_GCA_012800625.1_7.fasta</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -16837,7 +16837,7 @@
     <row r="154">
       <c r="A154" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_18.fasta</t>
+          <t>GB_GCA_900548225.1_11.fasta</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -16873,7 +16873,7 @@
     <row r="155">
       <c r="A155" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_6.fasta</t>
+          <t>GB_GCA_900548225.1_13.fasta</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -16909,7 +16909,7 @@
     <row r="156">
       <c r="A156" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_11.fasta</t>
+          <t>GB_GCA_900548225.1_5.fasta</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -16945,7 +16945,7 @@
     <row r="157">
       <c r="A157" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_15.fasta</t>
+          <t>GB_GCA_902776645.1_12.fasta</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -16981,7 +16981,7 @@
     <row r="158">
       <c r="A158" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_5.fasta</t>
+          <t>GB_GCA_902776645.1_15.fasta</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -17017,7 +17017,7 @@
     <row r="159">
       <c r="A159" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_0.fasta</t>
+          <t>GB_GCA_902776645.1_16.fasta</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -17053,7 +17053,7 @@
     <row r="160">
       <c r="A160" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_16.fasta</t>
+          <t>GB_GCA_902776645.1_19.fasta</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -17089,7 +17089,7 @@
     <row r="161">
       <c r="A161" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_12.fasta</t>
+          <t>GB_GCA_902776645.1_3.fasta</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -17125,7 +17125,7 @@
     <row r="162">
       <c r="A162" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_7.fasta</t>
+          <t>GB_GCA_902776645.1_6.fasta</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -17161,7 +17161,7 @@
     <row r="163">
       <c r="A163" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_1.fasta</t>
+          <t>GB_GCA_902776645.1_9.fasta</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -17197,7 +17197,7 @@
     <row r="164">
       <c r="A164" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_15.fasta</t>
+          <t>GB_GCA_902783355.1_10.fasta</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -17233,7 +17233,7 @@
     <row r="165">
       <c r="A165" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_3.fasta</t>
+          <t>GB_GCA_902783355.1_11.fasta</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -17269,7 +17269,7 @@
     <row r="166">
       <c r="A166" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_5.fasta</t>
+          <t>GB_GCA_902783355.1_16.fasta</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -17305,7 +17305,7 @@
     <row r="167">
       <c r="A167" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_7.fasta</t>
+          <t>GB_GCA_902783355.1_19.fasta</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -17341,7 +17341,7 @@
     <row r="168">
       <c r="A168" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_1.fasta</t>
+          <t>GB_GCA_902783355.1_5.fasta</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -17377,7 +17377,7 @@
     <row r="169">
       <c r="A169" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_12.fasta</t>
+          <t>GB_GCA_902783355.1_9.fasta</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -17413,7 +17413,7 @@
     <row r="170">
       <c r="A170" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_13.fasta</t>
+          <t>RS_GCF_900769285.1_1.fasta</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -17449,7 +17449,7 @@
     <row r="171">
       <c r="A171" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_17.fasta</t>
+          <t>RS_GCF_900769285.1_12.fasta</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -17485,7 +17485,7 @@
     <row r="172">
       <c r="A172" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_19.fasta</t>
+          <t>RS_GCF_900769285.1_13.fasta</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -17521,7 +17521,7 @@
     <row r="173">
       <c r="A173" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_11.fasta</t>
+          <t>RS_GCF_900769285.1_2.fasta</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -17557,7 +17557,7 @@
     <row r="174">
       <c r="A174" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_7.fasta</t>
+          <t>RS_GCF_900769285.1_5.fasta</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -17593,7 +17593,7 @@
     <row r="175">
       <c r="A175" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_8.fasta</t>
+          <t>RS_GCF_900771165.1_18.fasta</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -17629,7 +17629,7 @@
     <row r="176">
       <c r="A176" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_15.fasta</t>
+          <t>RS_GCF_900771165.1_6.fasta</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -17665,7 +17665,7 @@
     <row r="177">
       <c r="A177" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_4.fasta</t>
+          <t>RS_GCF_900771165.1_7.fasta</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -17701,7 +17701,7 @@
     <row r="178">
       <c r="A178" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_8.fasta</t>
+          <t>GB_GCA_002070945.1_0.fasta</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -17737,7 +17737,7 @@
     <row r="179">
       <c r="A179" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_9.fasta</t>
+          <t>GB_GCA_002070945.1_16.fasta</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -17773,7 +17773,7 @@
     <row r="180">
       <c r="A180" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_1.fasta</t>
+          <t>GB_GCA_002305655.1_12.fasta</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -17809,7 +17809,7 @@
     <row r="181">
       <c r="A181" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_15.fasta</t>
+          <t>GB_GCA_002305655.1_7.fasta</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -17845,7 +17845,7 @@
     <row r="182">
       <c r="A182" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_5.fasta</t>
+          <t>GB_GCA_002315885.1_1.fasta</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -17881,7 +17881,7 @@
     <row r="183">
       <c r="A183" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_8.fasta</t>
+          <t>GB_GCA_002315885.1_15.fasta</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -17917,7 +17917,7 @@
     <row r="184">
       <c r="A184" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_9.fasta</t>
+          <t>GB_GCA_002315885.1_3.fasta</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -17953,7 +17953,7 @@
     <row r="185">
       <c r="A185" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_0.fasta</t>
+          <t>GB_GCA_002315885.1_5.fasta</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -17989,7 +17989,7 @@
     <row r="186">
       <c r="A186" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_10.fasta</t>
+          <t>GB_GCA_002315885.1_7.fasta</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -18025,7 +18025,7 @@
     <row r="187">
       <c r="A187" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_11.fasta</t>
+          <t>GB_GCA_012515455.1_1.fasta</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -18061,7 +18061,7 @@
     <row r="188">
       <c r="A188" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_14.fasta</t>
+          <t>GB_GCA_012515455.1_12.fasta</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -18097,7 +18097,7 @@
     <row r="189">
       <c r="A189" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_4.fasta</t>
+          <t>GB_GCA_012515455.1_13.fasta</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -18133,7 +18133,7 @@
     <row r="190">
       <c r="A190" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_12.fasta</t>
+          <t>GB_GCA_012515455.1_17.fasta</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -18169,7 +18169,7 @@
     <row r="191">
       <c r="A191" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_14.fasta</t>
+          <t>GB_GCA_012515455.1_19.fasta</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -18205,7 +18205,7 @@
     <row r="192">
       <c r="A192" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_2.fasta</t>
+          <t>GB_GCA_012799725.1_11.fasta</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -18241,7 +18241,7 @@
     <row r="193">
       <c r="A193" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_3.fasta</t>
+          <t>GB_GCA_012799725.1_7.fasta</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -18277,7 +18277,7 @@
     <row r="194">
       <c r="A194" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_9.fasta</t>
+          <t>GB_GCA_012799725.1_8.fasta</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -18313,7 +18313,7 @@
     <row r="195">
       <c r="A195" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_10.fasta</t>
+          <t>GB_GCA_012799755.1_15.fasta</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -18349,7 +18349,7 @@
     <row r="196">
       <c r="A196" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_16.fasta</t>
+          <t>GB_GCA_012799755.1_4.fasta</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -18385,7 +18385,7 @@
     <row r="197">
       <c r="A197" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_7.fasta</t>
+          <t>GB_GCA_012799755.1_8.fasta</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -18421,7 +18421,7 @@
     <row r="198">
       <c r="A198" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_4.fasta</t>
+          <t>GB_GCA_012799755.1_9.fasta</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -18457,7 +18457,7 @@
     <row r="199">
       <c r="A199" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_1.fasta</t>
+          <t>GB_GCA_012799905.1_1.fasta</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -18493,7 +18493,7 @@
     <row r="200">
       <c r="A200" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_13.fasta</t>
+          <t>GB_GCA_012799905.1_15.fasta</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -18529,7 +18529,7 @@
     <row r="201">
       <c r="A201" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_4.fasta</t>
+          <t>GB_GCA_012799905.1_5.fasta</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -18565,7 +18565,7 @@
     <row r="202">
       <c r="A202" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_7.fasta</t>
+          <t>GB_GCA_012799905.1_8.fasta</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -18601,7 +18601,7 @@
     <row r="203">
       <c r="A203" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_8.fasta</t>
+          <t>GB_GCA_012799905.1_9.fasta</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -18637,7 +18637,7 @@
     <row r="204">
       <c r="A204" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_0.fasta</t>
+          <t>GB_GCA_012800565.1_0.fasta</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -18673,7 +18673,7 @@
     <row r="205">
       <c r="A205" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_11.fasta</t>
+          <t>GB_GCA_012800565.1_10.fasta</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -18709,7 +18709,7 @@
     <row r="206">
       <c r="A206" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_17.fasta</t>
+          <t>GB_GCA_012800565.1_11.fasta</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -18745,7 +18745,7 @@
     <row r="207">
       <c r="A207" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_19.fasta</t>
+          <t>GB_GCA_012800565.1_14.fasta</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -18781,7 +18781,7 @@
     <row r="208">
       <c r="A208" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_9.fasta</t>
+          <t>GB_GCA_012800565.1_4.fasta</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -18817,7 +18817,7 @@
     <row r="209">
       <c r="A209" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_0.fasta</t>
+          <t>GB_GCA_012800625.1_12.fasta</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -18853,7 +18853,7 @@
     <row r="210">
       <c r="A210" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_12.fasta</t>
+          <t>GB_GCA_012800625.1_14.fasta</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -18889,7 +18889,7 @@
     <row r="211">
       <c r="A211" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_16.fasta</t>
+          <t>GB_GCA_012800625.1_2.fasta</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -18925,7 +18925,7 @@
     <row r="212">
       <c r="A212" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_17.fasta</t>
+          <t>GB_GCA_012800625.1_3.fasta</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -18961,7 +18961,7 @@
     <row r="213">
       <c r="A213" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_19.fasta</t>
+          <t>GB_GCA_012800625.1_9.fasta</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -18997,7 +18997,7 @@
     <row r="214">
       <c r="A214" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_18.fasta</t>
+          <t>GB_GCA_900548225.1_10.fasta</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -19033,7 +19033,7 @@
     <row r="215">
       <c r="A215" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_19.fasta</t>
+          <t>GB_GCA_900548225.1_16.fasta</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -19069,7 +19069,7 @@
     <row r="216">
       <c r="A216" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_2.fasta</t>
+          <t>GB_GCA_900548225.1_7.fasta</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -19105,7 +19105,7 @@
     <row r="217">
       <c r="A217" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_7.fasta</t>
+          <t>GB_GCA_902776645.1_4.fasta</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -19141,7 +19141,7 @@
     <row r="218">
       <c r="A218" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_11.fasta</t>
+          <t>GB_GCA_902783355.1_1.fasta</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -19177,7 +19177,7 @@
     <row r="219">
       <c r="A219" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_19.fasta</t>
+          <t>GB_GCA_902783355.1_13.fasta</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -19213,7 +19213,7 @@
     <row r="220">
       <c r="A220" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_3.fasta</t>
+          <t>GB_GCA_902783355.1_4.fasta</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -19249,7 +19249,7 @@
     <row r="221">
       <c r="A221" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_5.fasta</t>
+          <t>GB_GCA_902783355.1_7.fasta</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -19285,7 +19285,7 @@
     <row r="222">
       <c r="A222" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_8.fasta</t>
+          <t>GB_GCA_902783355.1_8.fasta</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -19321,7 +19321,7 @@
     <row r="223">
       <c r="A223" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_11.fasta</t>
+          <t>RS_GCF_900769285.1_0.fasta</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -19357,7 +19357,7 @@
     <row r="224">
       <c r="A224" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_14.fasta</t>
+          <t>RS_GCF_900769285.1_11.fasta</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -19393,7 +19393,7 @@
     <row r="225">
       <c r="A225" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_16.fasta</t>
+          <t>RS_GCF_900769285.1_17.fasta</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -19429,7 +19429,7 @@
     <row r="226">
       <c r="A226" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_19.fasta</t>
+          <t>RS_GCF_900769285.1_19.fasta</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -19465,7 +19465,7 @@
     <row r="227">
       <c r="A227" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_8.fasta</t>
+          <t>RS_GCF_900769285.1_9.fasta</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -19501,7 +19501,7 @@
     <row r="228">
       <c r="A228" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_0.fasta</t>
+          <t>RS_GCF_900771165.1_0.fasta</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -19537,7 +19537,7 @@
     <row r="229">
       <c r="A229" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_10.fasta</t>
+          <t>RS_GCF_900771165.1_12.fasta</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -19573,7 +19573,7 @@
     <row r="230">
       <c r="A230" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_16.fasta</t>
+          <t>RS_GCF_900771165.1_16.fasta</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -19609,7 +19609,7 @@
     <row r="231">
       <c r="A231" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_5.fasta</t>
+          <t>RS_GCF_900771165.1_17.fasta</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -19645,7 +19645,7 @@
     <row r="232">
       <c r="A232" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_6.fasta</t>
+          <t>RS_GCF_900771165.1_19.fasta</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -19681,7 +19681,7 @@
     <row r="233">
       <c r="A233" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_0.fasta</t>
+          <t>GB_GCA_002070945.1_10.fasta</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -19717,7 +19717,7 @@
     <row r="234">
       <c r="A234" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_14.fasta</t>
+          <t>GB_GCA_002070945.1_12.fasta</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -19753,7 +19753,7 @@
     <row r="235">
       <c r="A235" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_17.fasta</t>
+          <t>GB_GCA_002070945.1_14.fasta</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -19789,7 +19789,7 @@
     <row r="236">
       <c r="A236" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_6.fasta</t>
+          <t>GB_GCA_002305655.1_1.fasta</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -19825,7 +19825,7 @@
     <row r="237">
       <c r="A237" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_1.fasta</t>
+          <t>GB_GCA_002305655.1_14.fasta</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -19861,7 +19861,7 @@
     <row r="238">
       <c r="A238" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_13.fasta</t>
+          <t>GB_GCA_002305655.1_16.fasta</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -19897,7 +19897,7 @@
     <row r="239">
       <c r="A239" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_14.fasta</t>
+          <t>GB_GCA_002305655.1_2.fasta</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -19933,7 +19933,7 @@
     <row r="240">
       <c r="A240" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_2.fasta</t>
+          <t>GB_GCA_002315885.1_0.fasta</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -19969,7 +19969,7 @@
     <row r="241">
       <c r="A241" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_3.fasta</t>
+          <t>GB_GCA_002315885.1_2.fasta</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -20005,7 +20005,7 @@
     <row r="242">
       <c r="A242" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_0.fasta</t>
+          <t>GB_GCA_002315885.1_9.fasta</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -20041,7 +20041,7 @@
     <row r="243">
       <c r="A243" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_10.fasta</t>
+          <t>GB_GCA_012515455.1_11.fasta</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -20077,7 +20077,7 @@
     <row r="244">
       <c r="A244" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_17.fasta</t>
+          <t>GB_GCA_012515455.1_3.fasta</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -20113,7 +20113,7 @@
     <row r="245">
       <c r="A245" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_19.fasta</t>
+          <t>GB_GCA_012515455.1_7.fasta</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -20149,7 +20149,7 @@
     <row r="246">
       <c r="A246" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_3.fasta</t>
+          <t>GB_GCA_012799725.1_13.fasta</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -20185,7 +20185,7 @@
     <row r="247">
       <c r="A247" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_4.fasta</t>
+          <t>GB_GCA_012799725.1_15.fasta</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -20221,7 +20221,7 @@
     <row r="248">
       <c r="A248" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_1.fasta</t>
+          <t>GB_GCA_012799725.1_19.fasta</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -20257,7 +20257,7 @@
     <row r="249">
       <c r="A249" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_9.fasta</t>
+          <t>GB_GCA_012799725.1_2.fasta</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -20293,7 +20293,7 @@
     <row r="250">
       <c r="A250" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_16.fasta</t>
+          <t>GB_GCA_012799755.1_0.fasta</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -20329,7 +20329,7 @@
     <row r="251">
       <c r="A251" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_18.fasta</t>
+          <t>GB_GCA_012799755.1_17.fasta</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -20365,7 +20365,7 @@
     <row r="252">
       <c r="A252" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_4.fasta</t>
+          <t>GB_GCA_012799755.1_19.fasta</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -20401,7 +20401,7 @@
     <row r="253">
       <c r="A253" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_7.fasta</t>
+          <t>GB_GCA_012799755.1_5.fasta</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -20437,7 +20437,7 @@
     <row r="254">
       <c r="A254" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_11.fasta</t>
+          <t>GB_GCA_012799905.1_12.fasta</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -20473,7 +20473,7 @@
     <row r="255">
       <c r="A255" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_13.fasta</t>
+          <t>GB_GCA_012799905.1_14.fasta</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -20509,7 +20509,7 @@
     <row r="256">
       <c r="A256" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_5.fasta</t>
+          <t>GB_GCA_012799905.1_18.fasta</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -20545,7 +20545,7 @@
     <row r="257">
       <c r="A257" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_12.fasta</t>
+          <t>GB_GCA_012799905.1_6.fasta</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -20581,7 +20581,7 @@
     <row r="258">
       <c r="A258" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_15.fasta</t>
+          <t>GB_GCA_012800565.1_17.fasta</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -20617,7 +20617,7 @@
     <row r="259">
       <c r="A259" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_16.fasta</t>
+          <t>GB_GCA_012800565.1_3.fasta</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -20653,7 +20653,7 @@
     <row r="260">
       <c r="A260" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_19.fasta</t>
+          <t>GB_GCA_012800565.1_5.fasta</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -20689,7 +20689,7 @@
     <row r="261">
       <c r="A261" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_3.fasta</t>
+          <t>GB_GCA_012800565.1_6.fasta</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -20725,7 +20725,7 @@
     <row r="262">
       <c r="A262" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_6.fasta</t>
+          <t>GB_GCA_012800625.1_15.fasta</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -20761,7 +20761,7 @@
     <row r="263">
       <c r="A263" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_9.fasta</t>
+          <t>GB_GCA_012800625.1_6.fasta</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -20797,7 +20797,7 @@
     <row r="264">
       <c r="A264" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_10.fasta</t>
+          <t>GB_GCA_900548225.1_0.fasta</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -20833,7 +20833,7 @@
     <row r="265">
       <c r="A265" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_11.fasta</t>
+          <t>GB_GCA_900548225.1_12.fasta</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -20869,7 +20869,7 @@
     <row r="266">
       <c r="A266" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_16.fasta</t>
+          <t>GB_GCA_900548225.1_14.fasta</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -20905,7 +20905,7 @@
     <row r="267">
       <c r="A267" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_19.fasta</t>
+          <t>GB_GCA_900548225.1_17.fasta</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -20941,7 +20941,7 @@
     <row r="268">
       <c r="A268" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_5.fasta</t>
+          <t>GB_GCA_900548225.1_3.fasta</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -20977,7 +20977,7 @@
     <row r="269">
       <c r="A269" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_9.fasta</t>
+          <t>GB_GCA_900548225.1_4.fasta</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -21013,7 +21013,7 @@
     <row r="270">
       <c r="A270" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_1.fasta</t>
+          <t>GB_GCA_902776645.1_17.fasta</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -21049,7 +21049,7 @@
     <row r="271">
       <c r="A271" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_12.fasta</t>
+          <t>GB_GCA_902776645.1_7.fasta</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -21085,7 +21085,7 @@
     <row r="272">
       <c r="A272" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_13.fasta</t>
+          <t>GB_GCA_902783355.1_0.fasta</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -21121,7 +21121,7 @@
     <row r="273">
       <c r="A273" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_2.fasta</t>
+          <t>GB_GCA_902783355.1_12.fasta</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -21157,7 +21157,7 @@
     <row r="274">
       <c r="A274" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_5.fasta</t>
+          <t>GB_GCA_902783355.1_17.fasta</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -21193,7 +21193,7 @@
     <row r="275">
       <c r="A275" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_18.fasta</t>
+          <t>GB_GCA_902783355.1_3.fasta</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -21229,7 +21229,7 @@
     <row r="276">
       <c r="A276" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_6.fasta</t>
+          <t>RS_GCF_900769285.1_14.fasta</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -21265,7 +21265,7 @@
     <row r="277">
       <c r="A277" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_7.fasta</t>
+          <t>RS_GCF_900769285.1_18.fasta</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -21301,7 +21301,7 @@
     <row r="278">
       <c r="A278" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_13.fasta</t>
+          <t>RS_GCF_900769285.1_6.fasta</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -21337,7 +21337,7 @@
     <row r="279">
       <c r="A279" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_3.fasta</t>
+          <t>RS_GCF_900771165.1_11.fasta</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -21373,7 +21373,7 @@
     <row r="280">
       <c r="A280" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_5.fasta</t>
+          <t>RS_GCF_900771165.1_15.fasta</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -21409,7 +21409,7 @@
     <row r="281">
       <c r="A281" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_8.fasta</t>
+          <t>RS_GCF_900771165.1_5.fasta</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -21445,7 +21445,7 @@
     <row r="282">
       <c r="A282" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002070945.1_9.fasta</t>
+          <t>GB_GCA_002070945.1_1.fasta</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -21481,32 +21481,32 @@
     <row r="283">
       <c r="A283" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_10.fasta</t>
+          <t>GB_GCA_002070945.1_11.fasta</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>4.942593987779423e-13</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>4.942593987779423e-13</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>4.942593987779423e-13</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>4.942593987779421e-13</v>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>0.2955905189305011</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>0.7044094810670277</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>4.942593987779424e-13</v>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0.7044094810670277</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
     <row r="284">
       <c r="A284" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_15.fasta</t>
+          <t>GB_GCA_002070945.1_15.fasta</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -21553,7 +21553,7 @@
     <row r="285">
       <c r="A285" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_4.fasta</t>
+          <t>GB_GCA_002070945.1_17.fasta</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -21589,7 +21589,7 @@
     <row r="286">
       <c r="A286" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002305655.1_9.fasta</t>
+          <t>GB_GCA_002070945.1_4.fasta</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -21625,7 +21625,7 @@
     <row r="287">
       <c r="A287" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_17.fasta</t>
+          <t>GB_GCA_002070945.1_6.fasta</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -21661,7 +21661,7 @@
     <row r="288">
       <c r="A288" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_18.fasta</t>
+          <t>GB_GCA_002305655.1_0.fasta</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -21697,7 +21697,7 @@
     <row r="289">
       <c r="A289" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_4.fasta</t>
+          <t>GB_GCA_002305655.1_13.fasta</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -21733,7 +21733,7 @@
     <row r="290">
       <c r="A290" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_002315885.1_6.fasta</t>
+          <t>GB_GCA_002305655.1_17.fasta</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -21769,7 +21769,7 @@
     <row r="291">
       <c r="A291" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_14.fasta</t>
+          <t>GB_GCA_002305655.1_18.fasta</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -21805,7 +21805,7 @@
     <row r="292">
       <c r="A292" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_15.fasta</t>
+          <t>GB_GCA_002305655.1_6.fasta</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -21841,7 +21841,7 @@
     <row r="293">
       <c r="A293" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_2.fasta</t>
+          <t>GB_GCA_002315885.1_10.fasta</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -21877,7 +21877,7 @@
     <row r="294">
       <c r="A294" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012515455.1_9.fasta</t>
+          <t>GB_GCA_002315885.1_12.fasta</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -21913,7 +21913,7 @@
     <row r="295">
       <c r="A295" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_1.fasta</t>
+          <t>GB_GCA_002315885.1_13.fasta</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -21949,7 +21949,7 @@
     <row r="296">
       <c r="A296" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_16.fasta</t>
+          <t>GB_GCA_012515455.1_18.fasta</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -21985,7 +21985,7 @@
     <row r="297">
       <c r="A297" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_18.fasta</t>
+          <t>GB_GCA_012515455.1_4.fasta</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -22021,7 +22021,7 @@
     <row r="298">
       <c r="A298" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_5.fasta</t>
+          <t>GB_GCA_012515455.1_8.fasta</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -22057,7 +22057,7 @@
     <row r="299">
       <c r="A299" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799725.1_9.fasta</t>
+          <t>GB_GCA_012799725.1_10.fasta</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -22093,32 +22093,32 @@
     <row r="300">
       <c r="A300" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_6.fasta</t>
+          <t>GB_GCA_012799725.1_12.fasta</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>0.07264770189875681</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>0.07264770189875681</v>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>0.0726477018987568</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>0.07264770189875681</v>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>0.07264770189875684</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0.5641137886074592</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>0.0726477018987568</v>
       </c>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>0.5641137886074592</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -22129,7 +22129,7 @@
     <row r="301">
       <c r="A301" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799755.1_7.fasta</t>
+          <t>GB_GCA_012799725.1_3.fasta</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -22165,7 +22165,7 @@
     <row r="302">
       <c r="A302" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_11.fasta</t>
+          <t>GB_GCA_012799725.1_4.fasta</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -22201,7 +22201,7 @@
     <row r="303">
       <c r="A303" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_13.fasta</t>
+          <t>GB_GCA_012799755.1_10.fasta</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -22237,7 +22237,7 @@
     <row r="304">
       <c r="A304" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012799905.1_2.fasta</t>
+          <t>GB_GCA_012799755.1_11.fasta</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -22273,7 +22273,7 @@
     <row r="305">
       <c r="A305" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_13.fasta</t>
+          <t>GB_GCA_012799755.1_12.fasta</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -22309,7 +22309,7 @@
     <row r="306">
       <c r="A306" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_15.fasta</t>
+          <t>GB_GCA_012799755.1_16.fasta</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -22345,7 +22345,7 @@
     <row r="307">
       <c r="A307" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_19.fasta</t>
+          <t>GB_GCA_012799755.1_18.fasta</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -22381,7 +22381,7 @@
     <row r="308">
       <c r="A308" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_2.fasta</t>
+          <t>GB_GCA_012799905.1_16.fasta</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -22417,7 +22417,7 @@
     <row r="309">
       <c r="A309" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_7.fasta</t>
+          <t>GB_GCA_012799905.1_7.fasta</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -22453,7 +22453,7 @@
     <row r="310">
       <c r="A310" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800565.1_8.fasta</t>
+          <t>GB_GCA_012800565.1_12.fasta</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -22489,7 +22489,7 @@
     <row r="311">
       <c r="A311" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_10.fasta</t>
+          <t>GB_GCA_012800565.1_16.fasta</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -22525,7 +22525,7 @@
     <row r="312">
       <c r="A312" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_13.fasta</t>
+          <t>GB_GCA_012800565.1_18.fasta</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -22561,7 +22561,7 @@
     <row r="313">
       <c r="A313" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_17.fasta</t>
+          <t>GB_GCA_012800625.1_0.fasta</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -22597,7 +22597,7 @@
     <row r="314">
       <c r="A314" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_012800625.1_19.fasta</t>
+          <t>GB_GCA_012800625.1_1.fasta</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -22633,7 +22633,7 @@
     <row r="315">
       <c r="A315" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_1.fasta</t>
+          <t>GB_GCA_012800625.1_11.fasta</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -22669,7 +22669,7 @@
     <row r="316">
       <c r="A316" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_15.fasta</t>
+          <t>GB_GCA_012800625.1_5.fasta</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -22705,7 +22705,7 @@
     <row r="317">
       <c r="A317" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_18.fasta</t>
+          <t>GB_GCA_012800625.1_8.fasta</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -22741,7 +22741,7 @@
     <row r="318">
       <c r="A318" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_19.fasta</t>
+          <t>GB_GCA_900548225.1_8.fasta</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -22777,7 +22777,7 @@
     <row r="319">
       <c r="A319" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_2.fasta</t>
+          <t>GB_GCA_902776645.1_1.fasta</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -22813,7 +22813,7 @@
     <row r="320">
       <c r="A320" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_6.fasta</t>
+          <t>GB_GCA_902776645.1_10.fasta</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -22849,7 +22849,7 @@
     <row r="321">
       <c r="A321" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_900548225.1_9.fasta</t>
+          <t>GB_GCA_902776645.1_11.fasta</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -22885,7 +22885,7 @@
     <row r="322">
       <c r="A322" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_0.fasta</t>
+          <t>GB_GCA_902776645.1_18.fasta</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -22921,7 +22921,7 @@
     <row r="323">
       <c r="A323" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_13.fasta</t>
+          <t>GB_GCA_902776645.1_8.fasta</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -22957,32 +22957,32 @@
     <row r="324">
       <c r="A324" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_14.fasta</t>
+          <t>GB_GCA_902783355.1_14.fasta</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>0.05290180081471003</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>0.9470981991851789</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2.219968195629095e-14</v>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>0.9470981991851789</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
     <row r="325">
       <c r="A325" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_2.fasta</t>
+          <t>GB_GCA_902783355.1_18.fasta</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -23029,7 +23029,7 @@
     <row r="326">
       <c r="A326" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902776645.1_5.fasta</t>
+          <t>GB_GCA_902783355.1_2.fasta</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -23065,7 +23065,7 @@
     <row r="327">
       <c r="A327" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_902783355.1_15.fasta</t>
+          <t>GB_GCA_902783355.1_6.fasta</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -23101,7 +23101,7 @@
     <row r="328">
       <c r="A328" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_3.fasta</t>
+          <t>RS_GCF_900769285.1_10.fasta</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -23137,7 +23137,7 @@
     <row r="329">
       <c r="A329" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900769285.1_4.fasta</t>
+          <t>RS_GCF_900769285.1_15.fasta</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -23173,7 +23173,7 @@
     <row r="330">
       <c r="A330" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_13.fasta</t>
+          <t>RS_GCF_900769285.1_16.fasta</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -23209,7 +23209,7 @@
     <row r="331">
       <c r="A331" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_2.fasta</t>
+          <t>RS_GCF_900769285.1_7.fasta</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -23245,7 +23245,7 @@
     <row r="332">
       <c r="A332" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_3.fasta</t>
+          <t>RS_GCF_900769285.1_8.fasta</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -23281,7 +23281,7 @@
     <row r="333">
       <c r="A333" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_4.fasta</t>
+          <t>RS_GCF_900771165.1_1.fasta</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -23317,7 +23317,7 @@
     <row r="334">
       <c r="A334" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_8.fasta</t>
+          <t>RS_GCF_900771165.1_10.fasta</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -23353,7 +23353,7 @@
     <row r="335">
       <c r="A335" s="11" t="inlineStr">
         <is>
-          <t>RS_GCF_900771165.1_9.fasta</t>
+          <t>RS_GCF_900771165.1_14.fasta</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -23604,7 +23604,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_1.fasta</t>
+          <t>GB_GCA_001803235.1_5.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -23640,7 +23640,7 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_13.fasta</t>
+          <t>GB_GCA_001803235.1_9.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -23676,7 +23676,7 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_4.fasta</t>
+          <t>GB_GCA_001803235.1_16.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -23712,32 +23712,32 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_6.fasta</t>
+          <t>GB_GCA_001803235.1_17.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.138186940298678</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.138186940298678</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.138186940298678</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.138186940298678</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.1381869402986779</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.138186940298678</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.1708783582079322</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.1708783582079322</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_0.fasta</t>
+          <t>GB_GCA_001803235.1_2.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -23784,7 +23784,7 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_12.fasta</t>
+          <t>GB_GCA_001803235.1_8.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -23820,7 +23820,7 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_14.fasta</t>
+          <t>GB_GCA_001803235.1_10.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -23856,7 +23856,7 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_19.fasta</t>
+          <t>GB_GCA_001803235.1_11.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -23892,7 +23892,7 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_3.fasta</t>
+          <t>GB_GCA_001803235.1_15.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -23928,7 +23928,7 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_7.fasta</t>
+          <t>GB_GCA_001803235.1_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -23964,7 +23964,7 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_10.fasta</t>
+          <t>GB_GCA_001803235.1_0.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -24000,7 +24000,7 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_11.fasta</t>
+          <t>GB_GCA_001803235.1_12.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -24036,7 +24036,7 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_15.fasta</t>
+          <t>GB_GCA_001803235.1_14.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -24072,7 +24072,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_18.fasta</t>
+          <t>GB_GCA_001803235.1_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -24108,7 +24108,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_16.fasta</t>
+          <t>GB_GCA_001803235.1_3.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -24144,43 +24144,43 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_17.fasta</t>
+          <t>GB_GCA_001803235.1_7.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1334662144349409</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1663344639126479</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1334662144349409</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1334662144349409</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1334662144349409</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1334662144349409</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1663344639126478</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1663344639126479</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>f__JAADHN01</t>
+          <t>f__YB12-FULL-65-16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_2.fasta</t>
+          <t>GB_GCA_001803235.1_1.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -24216,7 +24216,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_8.fasta</t>
+          <t>GB_GCA_001803235.1_13.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -24252,7 +24252,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_5.fasta</t>
+          <t>GB_GCA_001803235.1_4.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -24288,7 +24288,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>GB_GCA_001803235.1_9.fasta</t>
+          <t>GB_GCA_001803235.1_6.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
